--- a/medicine/Pharmacie/Joseph_Bougault/Joseph_Bougault.xlsx
+++ b/medicine/Pharmacie/Joseph_Bougault/Joseph_Bougault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Bougault est un pharmacien et chimiste français né le 4 janvier 1870 à Ligné et mort le 30 octobre 1955 à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Félix Ernest Bougault est le fils de Joseph Mathurin Bougault, propriétaire terrien, juge de paix, et de Marie Anne Gaignard. 
 Après sa scolarité chez les Frères des écoles chrétiennes à Nantes, il entre à l'École de médecine et de pharmacie de Nantes en 1890. Interne en pharmacie de l'hôpital de Nantes, il poursuit ses études à Paris. Le Jubilé scientifique de Louis Pasteur (27 décembre 1892) l'oriente vers la recherche, le pharmacopat des Hôpitaux et l'enseignement. Licencié ès sciences, interne en 1893, il est préparateur a l'École de pharmacie et travaille dans le laboratoire de chimie organique d'Émile Jungfleisch à un doctorat ès sciences, puis à la Pharmacie centrale des Hôpitaux comme sous-directeur du laboratoire des essais en 1898. Il devient pharmacien des Hôpitaux de Paris en 1908 et obtient l'agrégation l'année suivante.
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publications
-Notice sur la vie et les travaux de Émile Bourquelot, 21 juin 1851-26 janvier 1924</t>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Notice sur la vie et les travaux de Émile Bourquelot, 21 juin 1851-26 janvier 1924</t>
         </is>
       </c>
     </row>
@@ -577,9 +596,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Commandeur de la Légion d'honneur (1951)[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Commandeur de la Légion d'honneur (1951)
 Prix Gobley (1901)
 Prix Jecker (1910, 1930)
 Prix Jungfleisch</t>
@@ -611,6 +632,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
